--- a/biology/Médecine/Frank_Farrelly/Frank_Farrelly.xlsx
+++ b/biology/Médecine/Frank_Farrelly/Frank_Farrelly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Farrelly, né à Saint-Louis (Missouri) le 26 août 1931 et mort à Madison (Wisconsin) le 10 février 2013, est un psychologue américain.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Farrelly est travailleur social, titulaire d'un master de l'Université catholique d'Amérique et enregistré dans l'association professionnelle des travailleurs sociaux américains.
-Dans les années 1960, il développe une théorie dite de « provocation »[1],[2]. Il s'est inspiré entre autres des travaux de Carl Rogers[3]. Il a donné des enseignements à l'Université du Wisconsin-Madison et été assistant d'un professeur au Département de Psychiatrie à l'Université de Wisconsin Medical School. Il a écrit un livre.
+Dans les années 1960, il développe une théorie dite de « provocation »,. Il s'est inspiré entre autres des travaux de Carl Rogers. Il a donné des enseignements à l'Université du Wisconsin-Madison et été assistant d'un professeur au Département de Psychiatrie à l'Université de Wisconsin Medical School. Il a écrit un livre.
 </t>
         </is>
       </c>
